--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Finn/Documents/GitHub/APRG_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Finn/Documents/GitHub/APRG_Project/Allgemeines/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>Madi</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>20.10.17</t>
+  </si>
+  <si>
+    <t>21.10.17</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -455,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,6 +694,70 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
+    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>Madi</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>23.101.7</t>
   </si>
 </sst>
 </file>
@@ -165,13 +168,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -461,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,6 +767,86 @@
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="7">
+        <v>1</v>
+      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
   <si>
     <t>Madi</t>
   </si>
@@ -77,7 +77,10 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>23.101.7</t>
+    <t>23.10.17</t>
+  </si>
+  <si>
+    <t>02.11.17</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,6 +850,76 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+    </row>
+    <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+    </row>
+    <row r="45" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+    </row>
+    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7">
+        <v>2</v>
+      </c>
+      <c r="D47" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
   <si>
     <t>Madi</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>02.11.17</t>
+  </si>
+  <si>
+    <t>03.11.17</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,6 +923,78 @@
       </c>
       <c r="D47" s="7"/>
     </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+    </row>
+    <row r="51" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+    </row>
+    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
   <si>
     <t>Madi</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>03.11.17</t>
+  </si>
+  <si>
+    <t>04.11.17</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,6 +998,76 @@
       </c>
       <c r="D55" s="7"/>
     </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+    </row>
+    <row r="61" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+    </row>
+    <row r="63" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
   <si>
     <t>Madi</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>04.11.17</t>
+  </si>
+  <si>
+    <t>05.11.17</t>
+  </si>
+  <si>
+    <t>0.5</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,6 +1074,76 @@
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
     </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+    </row>
+    <row r="67" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+    </row>
+    <row r="69" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
   <si>
     <t>Madi</t>
   </si>
@@ -93,13 +93,19 @@
   </si>
   <si>
     <t>0.5</t>
+  </si>
+  <si>
+    <t>06.11.17</t>
+  </si>
+  <si>
+    <t>07.11.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,8 +141,15 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +160,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -168,7 +187,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -182,8 +201,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -196,20 +219,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,6 +1172,158 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+    </row>
+    <row r="73" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B79" s="7">
+        <v>1</v>
+      </c>
+      <c r="C79" s="7">
+        <v>1</v>
+      </c>
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+    </row>
+    <row r="81" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+    </row>
+    <row r="83" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+    </row>
+    <row r="85" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
   <si>
     <t>Madi</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>07.11.17</t>
+  </si>
+  <si>
+    <t>19.11.17</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20.11.17</t>
+  </si>
+  <si>
+    <t>21.11.17</t>
   </si>
 </sst>
 </file>
@@ -187,8 +199,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -221,7 +237,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -230,6 +246,8 @@
     <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -238,6 +256,8 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1324,6 +1344,216 @@
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
     </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+    </row>
+    <row r="89" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+    </row>
+    <row r="93" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="6"/>
+      <c r="C93" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+    </row>
+    <row r="97" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+    </row>
+    <row r="99" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+    </row>
+    <row r="101" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+    </row>
+    <row r="103" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="8"/>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+    </row>
+    <row r="105" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+    </row>
+    <row r="107" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="6"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+    </row>
+    <row r="109" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="6"/>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="6"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+    </row>
+    <row r="111" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7">
+        <v>2</v>
+      </c>
+      <c r="D111" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="29">
   <si>
     <t>Madi</t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>21.11.17</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1554,6 +1557,76 @@
       </c>
       <c r="D111" s="7"/>
     </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="8"/>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+    </row>
+    <row r="113" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+    </row>
+    <row r="115" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" s="6"/>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+    </row>
+    <row r="117" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+    </row>
+    <row r="119" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="32">
   <si>
     <t>Madi</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>23.11.17</t>
+  </si>
+  <si>
+    <t>22.11.17</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -536,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="C134" sqref="C134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1574,7 @@
     </row>
     <row r="113" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>1</v>
@@ -1606,9 +1615,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="6"/>
-      <c r="C117" s="6" t="s">
-        <v>28</v>
-      </c>
+      <c r="C117" s="6"/>
       <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -1624,8 +1631,150 @@
         <v>6</v>
       </c>
       <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
+      <c r="C119" s="7">
+        <v>1</v>
+      </c>
       <c r="D119" s="7"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="8"/>
+      <c r="B120" s="8"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+    </row>
+    <row r="121" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+    </row>
+    <row r="123" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+    </row>
+    <row r="125" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="6"/>
+      <c r="C125" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+    </row>
+    <row r="127" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="8"/>
+      <c r="B128" s="8"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+    </row>
+    <row r="129" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+    </row>
+    <row r="131" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+    </row>
+    <row r="133" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+    </row>
+    <row r="135" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="34">
   <si>
     <t>Madi</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>27.11.17</t>
+  </si>
+  <si>
+    <t>28.11.17</t>
   </si>
 </sst>
 </file>
@@ -545,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C134" sqref="C134"/>
+    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
+      <selection activeCell="C142" sqref="C142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1714,7 +1720,7 @@
     </row>
     <row r="129" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>1</v>
@@ -1775,6 +1781,76 @@
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="7"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="8"/>
+      <c r="B136" s="8"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+    </row>
+    <row r="137" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+    </row>
+    <row r="139" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B139" s="6"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="6"/>
+      <c r="C140" s="6"/>
+      <c r="D140" s="6"/>
+    </row>
+    <row r="141" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+    </row>
+    <row r="143" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Allgemeines/Zeiterfassung.xlsx
+++ b/Allgemeines/Zeiterfassung.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="40">
   <si>
     <t>Madi</t>
   </si>
@@ -129,13 +129,31 @@
   </si>
   <si>
     <t>28.11.17</t>
+  </si>
+  <si>
+    <t>29.11.17</t>
+  </si>
+  <si>
+    <t>30.11.17</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Bericht</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -178,6 +196,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -199,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -209,6 +234,26 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -240,7 +285,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -254,6 +299,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
@@ -551,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" workbookViewId="0">
-      <selection activeCell="C142" sqref="C142"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,11 +1101,10 @@
       <c r="A53" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="6"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
@@ -1118,11 +1172,15 @@
       <c r="A61" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="6"/>
+      <c r="B61" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C61" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D61" s="6"/>
+      <c r="D61" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
@@ -1636,11 +1694,15 @@
       <c r="A119" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B119" s="7"/>
+      <c r="B119" s="7">
+        <v>3</v>
+      </c>
       <c r="C119" s="7">
         <v>1</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
@@ -1708,9 +1770,13 @@
       <c r="A127" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B127" s="7"/>
+      <c r="B127" s="7">
+        <v>5</v>
+      </c>
       <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
+      <c r="D127" s="7">
+        <v>5</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
@@ -1840,9 +1906,13 @@
       <c r="A142" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="6"/>
+      <c r="B142" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
+      <c r="D142" s="6" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="143" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
@@ -1851,6 +1921,164 @@
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="7"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="8"/>
+      <c r="B144" s="8"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+    </row>
+    <row r="145" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" s="6"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+    </row>
+    <row r="147" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="6"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="6"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+    </row>
+    <row r="149" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" s="6"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+    </row>
+    <row r="153" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+    </row>
+    <row r="155" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+    </row>
+    <row r="157" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" s="6"/>
+      <c r="D157" s="13"/>
+    </row>
+    <row r="158" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="19" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+    </row>
+    <row r="160" spans="1:5" s="12" customFormat="1" ht="20" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B160" s="11"/>
+      <c r="C160" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
